--- a/7rmartproject/src/test/resources/Test_Data.xlsx
+++ b/7rmartproject/src/test/resources/Test_Data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5FB0CD99-C508-407C-B646-9F51A8F88E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91828\git\7rmartp\7rmartproject\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF057AC5-1209-4AEF-909B-8259D1DC149A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{27A403A5-CC2E-4B97-9431-33AD889FFF89}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{27A403A5-CC2E-4B97-9431-33AD889FFF89}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="managenewspage" sheetId="2" r:id="rId2"/>
     <sheet name="adminuserpage" sheetId="3" r:id="rId3"/>
     <sheet name="managefooter" sheetId="5" r:id="rId4"/>
+    <sheet name="managecontact" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>password</t>
   </si>
@@ -57,13 +62,19 @@
   </si>
   <si>
     <t>testautomation</t>
+  </si>
+  <si>
+    <t>example@example.com</t>
+  </si>
+  <si>
+    <t>california, USA -258791</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +97,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,12 +131,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DE2C23-0978-435A-8AA7-AA8BC92AC39C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -544,7 +580,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -568,4 +604,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF8734-A240-47C3-A7C0-5243F257C4A4}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6">
+        <v>856784271562</v>
+      </c>
+      <c r="D1" s="4">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>